--- a/drafts/fullstack.xlsx
+++ b/drafts/fullstack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Field Names" sheetId="1" r:id="rId1"/>
@@ -1822,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -2005,7 +2005,7 @@
         <v>8</v>
       </c>
       <c r="X2" s="2" t="str">
-        <f t="shared" ref="X2:X22" si="0">H2</f>
+        <f t="shared" ref="X2:X18" si="0">H2</f>
         <v>Javascript</v>
       </c>
       <c r="Y2" s="2" t="s">
@@ -3673,7 +3673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="A23" sqref="A1:A23"/>
     </sheetView>
   </sheetViews>
